--- a/data/steel/steel_WholeMill_var.xlsx
+++ b/data/steel/steel_WholeMill_var.xlsx
@@ -131,7 +131,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="73">
   <si>
     <t>scenario</t>
   </si>
@@ -145,24 +145,12 @@
     <t>scrap use</t>
   </si>
   <si>
-    <t>Sinter Plant Coal Demand</t>
-  </si>
-  <si>
-    <t>Coke Plant Coal Demand</t>
-  </si>
-  <si>
     <t>sinter cofire rate</t>
   </si>
   <si>
-    <t>coke cofire rate</t>
-  </si>
-  <si>
     <t>BF cofire rate</t>
   </si>
   <si>
-    <t>BF Coal Demand</t>
-  </si>
-  <si>
     <t>CaCO3 demand</t>
   </si>
   <si>
@@ -184,9 +172,6 @@
     <t>default</t>
   </si>
   <si>
-    <t>Birat 2010</t>
-  </si>
-  <si>
     <t>electricity import</t>
   </si>
   <si>
@@ -289,9 +274,6 @@
     <t>EUFOFER 2030_Max-CCS</t>
   </si>
   <si>
-    <t>Birat 2010 TGR</t>
-  </si>
-  <si>
     <t>other fuel use</t>
   </si>
   <si>
@@ -328,19 +310,46 @@
     <t>IEAGHG 2013_OBF</t>
   </si>
   <si>
-    <t>fueltype</t>
-  </si>
-  <si>
     <t>C in CaCO3 to slag</t>
   </si>
   <si>
     <t>t C / t CaCO3</t>
   </si>
   <si>
-    <t>t coal / t fresh steel</t>
-  </si>
-  <si>
     <t>%</t>
+  </si>
+  <si>
+    <t>birat-tgr-63vpsa</t>
+  </si>
+  <si>
+    <t>birat-tgr-63vpsa-50bio</t>
+  </si>
+  <si>
+    <t>birat-base</t>
+  </si>
+  <si>
+    <t>secondary fuel type</t>
+  </si>
+  <si>
+    <t>fossil fuel type</t>
+  </si>
+  <si>
+    <t>t fossil fuel / t fresh steel</t>
+  </si>
+  <si>
+    <t>coal</t>
+  </si>
+  <si>
+    <t>Sinter Plant Fuel Demand</t>
+  </si>
+  <si>
+    <t>Coke Oven Fuel Demand</t>
+  </si>
+  <si>
+    <t>BF Fuel Demand</t>
+  </si>
+  <si>
+    <t>coke oven cofire rate</t>
   </si>
 </sst>
 </file>
@@ -350,7 +359,7 @@
   <numFmts count="3">
     <numFmt numFmtId="164" formatCode="0.00000"/>
     <numFmt numFmtId="165" formatCode="0.0000"/>
-    <numFmt numFmtId="169" formatCode="0.000"/>
+    <numFmt numFmtId="166" formatCode="0.000"/>
   </numFmts>
   <fonts count="11" x14ac:knownFonts="1">
     <font>
@@ -532,7 +541,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
@@ -556,9 +565,10 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -840,127 +850,130 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N6"/>
+  <dimension ref="A1:O7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="K14" sqref="K14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="17.85546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13.28515625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="15.28515625" customWidth="1"/>
-    <col min="5" max="5" width="13.85546875" customWidth="1"/>
-    <col min="6" max="6" width="23.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="23" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16" customWidth="1"/>
-    <col min="9" max="9" width="15.85546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="13.85546875" customWidth="1"/>
+    <col min="7" max="7" width="23.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="23" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16" customWidth="1"/>
+    <col min="10" max="10" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="J1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="K1" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="L1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="J1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="K1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>53</v>
-      </c>
       <c r="N1" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="O1" s="1" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E2" t="s">
+        <v>60</v>
+      </c>
+      <c r="G2" t="s">
         <v>67</v>
       </c>
-      <c r="F2" t="s">
-        <v>68</v>
-      </c>
-      <c r="G2" t="s">
-        <v>68</v>
-      </c>
       <c r="H2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="I2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="J2" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="K2" t="s">
-        <v>69</v>
-      </c>
-      <c r="M2" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+        <v>61</v>
+      </c>
+      <c r="L2" t="s">
+        <v>61</v>
+      </c>
+      <c r="N2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
       <c r="D3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="B4">
         <f>B5</f>
         <v>0.25919999999999999</v>
       </c>
       <c r="C4">
-        <f t="shared" ref="C4:L4" si="0">C5</f>
+        <f t="shared" ref="C4:M4" si="0">C5</f>
         <v>0.13800000000000001</v>
       </c>
       <c r="D4">
@@ -971,22 +984,22 @@
         <f t="shared" si="0"/>
         <v>0.15909090909090906</v>
       </c>
-      <c r="F4">
+      <c r="F4" s="21" t="str">
+        <f t="shared" si="0"/>
+        <v>coal</v>
+      </c>
+      <c r="G4">
         <f t="shared" si="0"/>
         <v>1.3921113689095127E-2</v>
       </c>
-      <c r="G4">
+      <c r="H4">
         <f t="shared" si="0"/>
         <v>0.44315545243619492</v>
       </c>
-      <c r="H4">
+      <c r="I4">
         <f t="shared" si="0"/>
         <v>0.21693735498839908</v>
       </c>
-      <c r="I4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
       <c r="J4">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -995,20 +1008,24 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="L4" t="str">
+      <c r="L4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M4" t="str">
         <f t="shared" si="0"/>
         <v>charcoal</v>
       </c>
-      <c r="M4">
-        <v>0</v>
-      </c>
-      <c r="N4" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="N4">
+        <v>0</v>
+      </c>
+      <c r="O4" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>17</v>
+        <v>64</v>
       </c>
       <c r="B5">
         <f>72*'Reference Values'!$B$18</f>
@@ -1025,40 +1042,43 @@
         <f>1-(37/44)</f>
         <v>0.15909090909090906</v>
       </c>
-      <c r="F5">
+      <c r="F5" s="21" t="s">
+        <v>68</v>
+      </c>
+      <c r="G5">
         <f>12/(1000-138)</f>
         <v>1.3921113689095127E-2</v>
       </c>
-      <c r="G5">
+      <c r="H5">
         <f>382/(1000-138)</f>
         <v>0.44315545243619492</v>
       </c>
-      <c r="H5">
+      <c r="I5">
         <f>187/(1000-138)</f>
         <v>0.21693735498839908</v>
       </c>
-      <c r="I5">
-        <v>0</v>
-      </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
-      <c r="L5" t="s">
-        <v>37</v>
-      </c>
-      <c r="M5">
-        <v>0</v>
-      </c>
-      <c r="N5" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="L5">
+        <v>0</v>
+      </c>
+      <c r="M5" t="s">
+        <v>32</v>
+      </c>
+      <c r="N5">
+        <v>0</v>
+      </c>
+      <c r="O5" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>52</v>
+        <v>62</v>
       </c>
       <c r="B6">
         <f>(586-(0.812/0.8)*310)*'Reference Values'!$B$18</f>
@@ -1075,35 +1095,93 @@
         <f>1-(37/44)</f>
         <v>0.15909090909090906</v>
       </c>
-      <c r="F6">
+      <c r="F6" s="21" t="s">
+        <v>68</v>
+      </c>
+      <c r="G6">
         <f>24/(1000-138)</f>
         <v>2.7842227378190254E-2</v>
       </c>
-      <c r="G6">
+      <c r="H6">
         <f>258/(1000-138)</f>
         <v>0.29930394431554525</v>
       </c>
-      <c r="H6">
+      <c r="I6">
         <f>144/(1000-138)</f>
         <v>0.16705336426914152</v>
       </c>
-      <c r="I6">
-        <v>0</v>
-      </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
-      <c r="L6" t="s">
-        <v>37</v>
-      </c>
-      <c r="M6">
+      <c r="L6">
+        <v>0</v>
+      </c>
+      <c r="M6" t="s">
+        <v>32</v>
+      </c>
+      <c r="N6">
         <v>1.7</v>
       </c>
-      <c r="N6" t="s">
-        <v>54</v>
+      <c r="O6" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>63</v>
+      </c>
+      <c r="B7">
+        <f t="shared" ref="B7:I7" si="1">B6</f>
+        <v>0.97686000000000006</v>
+      </c>
+      <c r="C7">
+        <f t="shared" si="1"/>
+        <v>0.13800000000000001</v>
+      </c>
+      <c r="D7">
+        <f t="shared" si="1"/>
+        <v>0.28074245939675174</v>
+      </c>
+      <c r="E7">
+        <f t="shared" si="1"/>
+        <v>0.15909090909090906</v>
+      </c>
+      <c r="F7" s="21" t="s">
+        <v>68</v>
+      </c>
+      <c r="G7">
+        <f t="shared" si="1"/>
+        <v>2.7842227378190254E-2</v>
+      </c>
+      <c r="H7">
+        <f t="shared" si="1"/>
+        <v>0.29930394431554525</v>
+      </c>
+      <c r="I7">
+        <f t="shared" si="1"/>
+        <v>0.16705336426914152</v>
+      </c>
+      <c r="J7" s="22">
+        <v>0.5</v>
+      </c>
+      <c r="K7" s="22">
+        <v>0.5</v>
+      </c>
+      <c r="L7" s="22">
+        <v>0.5</v>
+      </c>
+      <c r="M7" t="s">
+        <v>32</v>
+      </c>
+      <c r="N7">
+        <f>N6</f>
+        <v>1.7</v>
+      </c>
+      <c r="O7" t="s">
+        <v>48</v>
       </c>
     </row>
   </sheetData>
@@ -1130,32 +1208,32 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="20" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>47</v>
-      </c>
       <c r="D1" s="1" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="B2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C2" t="s">
         <v>40</v>
-      </c>
-      <c r="B2" t="s">
-        <v>44</v>
-      </c>
-      <c r="C2" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="19" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="B3">
         <f>B4</f>
@@ -1168,7 +1246,7 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="B4">
         <v>1.8879999999999999</v>
@@ -1179,7 +1257,7 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="B5">
         <v>1.968</v>
@@ -1190,7 +1268,7 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="B6">
         <v>2.0939999999999999</v>
@@ -1201,7 +1279,7 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="B7">
         <v>1.046</v>
@@ -1212,7 +1290,7 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="B8">
         <v>0.83140000000000003</v>
@@ -1223,7 +1301,7 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="B9">
         <v>1.119</v>
@@ -1254,27 +1332,27 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="20" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>47</v>
-      </c>
       <c r="D1" s="1" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="B2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C2" t="s">
         <v>40</v>
-      </c>
-      <c r="B2" t="s">
-        <v>44</v>
-      </c>
-      <c r="C2" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -1284,7 +1362,7 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="B4">
         <f>B8</f>
@@ -1297,7 +1375,7 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="B5">
         <v>0.12</v>
@@ -1308,7 +1386,7 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="B6">
         <v>7.0000000000000007E-2</v>
@@ -1319,7 +1397,7 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="B7">
         <v>0.45500000000000002</v>
@@ -1330,7 +1408,7 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="B8">
         <v>0.66700000000000004</v>
@@ -1361,27 +1439,27 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="20" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>47</v>
-      </c>
       <c r="D1" s="1" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="B2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C2" t="s">
         <v>40</v>
-      </c>
-      <c r="B2" t="s">
-        <v>44</v>
-      </c>
-      <c r="C2" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -1391,7 +1469,7 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="B4">
         <f>B5</f>
@@ -1403,7 +1481,7 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="B5">
         <v>1.2929999999999999</v>
@@ -1414,7 +1492,7 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="B6">
         <v>1.508</v>
@@ -1425,7 +1503,7 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="B7">
         <f>$B$6*(1-0.19)</f>
@@ -1437,7 +1515,7 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="B8">
         <f>$B$6*(1-0.31)</f>
@@ -1449,7 +1527,7 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="B9">
         <f>$B$6*(1-0.22)</f>
@@ -1461,7 +1539,7 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="B10">
         <f>$B$6*(1-0.22)</f>
@@ -1473,7 +1551,7 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="B11">
         <f>$B$6*(1-0.24)</f>
@@ -1485,7 +1563,7 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="B12">
         <f>$B$6*(1-0.48)</f>
@@ -1497,7 +1575,7 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="B13">
         <f>$B$6*(1-0.63)</f>
@@ -1509,7 +1587,7 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="B14">
         <f>$B$6*(1-0.28)</f>
@@ -1536,14 +1614,14 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
@@ -1551,15 +1629,15 @@
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="4"/>
       <c r="B3" s="5" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="B4" s="8">
         <v>12</v>
@@ -1571,7 +1649,7 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="B5" s="8">
         <v>16.042459999999998</v>
@@ -1583,7 +1661,7 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="B6" s="8">
         <v>28.010100000000001</v>
@@ -1595,7 +1673,7 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="B7" s="8">
         <v>44.009500000000003</v>
@@ -1607,7 +1685,7 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="B8" s="8">
         <v>2.0158800000000001</v>
@@ -1619,7 +1697,7 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="B9" s="8">
         <v>18.015280000000001</v>
@@ -1631,7 +1709,7 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="B10" s="8">
         <f>(78.12+92.15+106.7)/3</f>
@@ -1644,7 +1722,7 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="B11" s="8">
         <v>28.013400000000001</v>
@@ -1656,7 +1734,7 @@
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="B12" s="8">
         <v>31.998799999999999</v>
@@ -1678,7 +1756,7 @@
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="B15" s="13"/>
       <c r="C15" s="13"/>
@@ -1686,13 +1764,13 @@
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="4"/>
       <c r="B16" s="14" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="C16" s="15"/>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="7" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="B17" s="16">
         <v>3.6</v>
@@ -1701,7 +1779,7 @@
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="7" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="B18" s="17">
         <f>B17/1000</f>
@@ -1711,7 +1789,7 @@
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="10" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="B19" s="12">
         <f>1/0.022414</f>

--- a/data/steel/steel_WholeMill_var.xlsx
+++ b/data/steel/steel_WholeMill_var.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10910"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\setanzer\GitHub\BlackBlox\data\steel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Tanzer/GitHub/BlackBlox/data/steel/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5D71DD9-1A35-E247-A1B0-302CBE56A764}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20535" windowHeight="12930"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="20540" windowHeight="12940" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Birat BF" sheetId="1" r:id="rId1"/>
@@ -18,7 +19,7 @@
     <sheet name="BF EAF bb" sheetId="5" r:id="rId4"/>
     <sheet name="Reference Values" sheetId="2" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="179021"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -28,12 +29,12 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>S.E. Tanzer</author>
   </authors>
   <commentList>
-    <comment ref="E5" authorId="0" shapeId="0">
+    <comment ref="E5" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
         <r>
           <rPr>
@@ -57,13 +58,13 @@
         </r>
       </text>
     </comment>
-    <comment ref="B6" authorId="0" shapeId="0">
+    <comment ref="B6" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
-            <color indexed="81"/>
+            <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
@@ -72,14 +73,61 @@
         <r>
           <rPr>
             <sz val="9"/>
-            <color indexed="81"/>
+            <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
           <t xml:space="preserve">
-total electricity minus that estimated required for CO2 capture/compression, based on other numbers in the paper. (t CO2 out/cap eff)*[kWh/t CO2] And converted from kWh to GJ.
-Additional electricity used for oxygen seperation.
-In this scenario, the natural gas used for heat is assumed to be used entirely for </t>
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">total electricity minus that estimated required for CO2 capture/compression, based on other numbers in the paper. (t CO2 out/cap eff)*[kWh/t CO2] And converted from kWh to GJ.
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Additional electricity used for oxygen seperation.
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">In this scenario, the natural gas used for heat is assumed to be used entirely for </t>
         </r>
       </text>
     </comment>
@@ -88,12 +136,12 @@
 </file>
 
 <file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Microsoft Office User</author>
   </authors>
   <commentList>
-    <comment ref="C3" authorId="0" shapeId="0">
+    <comment ref="C3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000001000000}">
       <text>
         <r>
           <rPr>
@@ -131,7 +179,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="75">
   <si>
     <t>scenario</t>
   </si>
@@ -274,9 +322,6 @@
     <t>EUFOFER 2030_Max-CCS</t>
   </si>
   <si>
-    <t>other fuel use</t>
-  </si>
-  <si>
     <t>natural gas</t>
   </si>
   <si>
@@ -350,18 +395,27 @@
   </si>
   <si>
     <t>coke oven cofire rate</t>
+  </si>
+  <si>
+    <t>birat-tgr-63vpsa-100bio</t>
+  </si>
+  <si>
+    <t>birat-tgr-100vpsa-100bio</t>
+  </si>
+  <si>
+    <t>other energy use</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="3">
     <numFmt numFmtId="164" formatCode="0.00000"/>
     <numFmt numFmtId="165" formatCode="0.0000"/>
     <numFmt numFmtId="166" formatCode="0.000"/>
   </numFmts>
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -436,6 +490,19 @@
       <b/>
       <sz val="9"/>
       <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
       <name val="Tahoma"/>
       <family val="2"/>
     </font>
@@ -572,7 +639,7 @@
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -849,29 +916,32 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:O9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="K14" sqref="K14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="I2" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="O14" sqref="O14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="20.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.28515625" customWidth="1"/>
-    <col min="5" max="6" width="13.85546875" customWidth="1"/>
-    <col min="7" max="7" width="23.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.33203125" customWidth="1"/>
+    <col min="5" max="6" width="13.83203125" customWidth="1"/>
+    <col min="7" max="7" width="23.83203125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="23" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="16" customWidth="1"/>
-    <col min="10" max="10" width="15.85546875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.83203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.83203125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -885,25 +955,25 @@
         <v>6</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G1" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>70</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>71</v>
       </c>
       <c r="J1" s="1" t="s">
         <v>4</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="L1" s="1" t="s">
         <v>5</v>
@@ -912,13 +982,13 @@
         <v>7</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>47</v>
+        <v>74</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -932,31 +1002,31 @@
         <v>10</v>
       </c>
       <c r="E2" t="s">
+        <v>59</v>
+      </c>
+      <c r="G2" t="s">
+        <v>66</v>
+      </c>
+      <c r="H2" t="s">
+        <v>66</v>
+      </c>
+      <c r="I2" t="s">
+        <v>66</v>
+      </c>
+      <c r="J2" t="s">
         <v>60</v>
       </c>
-      <c r="G2" t="s">
-        <v>67</v>
-      </c>
-      <c r="H2" t="s">
-        <v>67</v>
-      </c>
-      <c r="I2" t="s">
-        <v>67</v>
-      </c>
-      <c r="J2" t="s">
-        <v>61</v>
-      </c>
       <c r="K2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="L2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="N2" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -964,7 +1034,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>12</v>
       </c>
@@ -1020,12 +1090,12 @@
         <v>0</v>
       </c>
       <c r="O4" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B5">
         <f>72*'Reference Values'!$B$18</f>
@@ -1043,7 +1113,7 @@
         <v>0.15909090909090906</v>
       </c>
       <c r="F5" s="21" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G5">
         <f>12/(1000-138)</f>
@@ -1073,12 +1143,12 @@
         <v>0</v>
       </c>
       <c r="O5" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B6">
         <f>(586-(0.812/0.8)*310)*'Reference Values'!$B$18</f>
@@ -1096,7 +1166,7 @@
         <v>0.15909090909090906</v>
       </c>
       <c r="F6" s="21" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G6">
         <f>24/(1000-138)</f>
@@ -1126,12 +1196,12 @@
         <v>1.7</v>
       </c>
       <c r="O6" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B7">
         <f t="shared" ref="B7:I7" si="1">B6</f>
@@ -1150,7 +1220,7 @@
         <v>0.15909090909090906</v>
       </c>
       <c r="F7" s="21" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G7">
         <f t="shared" si="1"/>
@@ -1181,7 +1251,121 @@
         <v>1.7</v>
       </c>
       <c r="O7" t="s">
-        <v>48</v>
+        <v>47</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>72</v>
+      </c>
+      <c r="B8">
+        <f t="shared" ref="B8:I9" si="2">B$6</f>
+        <v>0.97686000000000006</v>
+      </c>
+      <c r="C8">
+        <f t="shared" si="2"/>
+        <v>0.13800000000000001</v>
+      </c>
+      <c r="D8">
+        <f t="shared" si="2"/>
+        <v>0.28074245939675174</v>
+      </c>
+      <c r="E8">
+        <f t="shared" si="2"/>
+        <v>0.15909090909090906</v>
+      </c>
+      <c r="F8" t="str">
+        <f t="shared" si="2"/>
+        <v>coal</v>
+      </c>
+      <c r="G8">
+        <f t="shared" si="2"/>
+        <v>2.7842227378190254E-2</v>
+      </c>
+      <c r="H8">
+        <f t="shared" si="2"/>
+        <v>0.29930394431554525</v>
+      </c>
+      <c r="I8">
+        <f t="shared" si="2"/>
+        <v>0.16705336426914152</v>
+      </c>
+      <c r="J8" s="22">
+        <v>1</v>
+      </c>
+      <c r="K8" s="22">
+        <v>1</v>
+      </c>
+      <c r="L8" s="22">
+        <v>1</v>
+      </c>
+      <c r="M8" t="str">
+        <f t="shared" ref="M8:O9" si="3">M$6</f>
+        <v>charcoal</v>
+      </c>
+      <c r="N8">
+        <f t="shared" si="3"/>
+        <v>1.7</v>
+      </c>
+      <c r="O8" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>73</v>
+      </c>
+      <c r="B9">
+        <f t="shared" si="2"/>
+        <v>0.97686000000000006</v>
+      </c>
+      <c r="C9">
+        <f t="shared" si="2"/>
+        <v>0.13800000000000001</v>
+      </c>
+      <c r="D9">
+        <f t="shared" si="2"/>
+        <v>0.28074245939675174</v>
+      </c>
+      <c r="E9">
+        <f t="shared" si="2"/>
+        <v>0.15909090909090906</v>
+      </c>
+      <c r="F9" t="str">
+        <f t="shared" si="2"/>
+        <v>coal</v>
+      </c>
+      <c r="G9">
+        <f t="shared" si="2"/>
+        <v>2.7842227378190254E-2</v>
+      </c>
+      <c r="H9">
+        <f t="shared" si="2"/>
+        <v>0.29930394431554525</v>
+      </c>
+      <c r="I9">
+        <f t="shared" si="2"/>
+        <v>0.16705336426914152</v>
+      </c>
+      <c r="J9" s="22">
+        <v>1</v>
+      </c>
+      <c r="K9" s="22">
+        <v>1</v>
+      </c>
+      <c r="L9" s="22">
+        <v>1</v>
+      </c>
+      <c r="M9" t="str">
+        <f t="shared" si="3"/>
+        <v>charcoal</v>
+      </c>
+      <c r="N9">
+        <f t="shared" si="3"/>
+        <v>1.7</v>
+      </c>
+      <c r="O9" t="s">
+        <v>32</v>
       </c>
     </row>
   </sheetData>
@@ -1192,21 +1376,21 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="13.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="20" t="s">
         <v>38</v>
       </c>
@@ -1220,7 +1404,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="19" t="s">
         <v>35</v>
       </c>
@@ -1231,7 +1415,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="19" t="s">
         <v>12</v>
       </c>
@@ -1244,7 +1428,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>41</v>
       </c>
@@ -1255,7 +1439,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>43</v>
       </c>
@@ -1266,9 +1450,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B6">
         <v>2.0939999999999999</v>
@@ -1277,9 +1461,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B7">
         <v>1.046</v>
@@ -1288,9 +1472,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B8">
         <v>0.83140000000000003</v>
@@ -1299,9 +1483,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B9">
         <v>1.119</v>
@@ -1316,21 +1500,21 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="16.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="29.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="29.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="20" t="s">
         <v>38</v>
       </c>
@@ -1344,7 +1528,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="19" t="s">
         <v>35</v>
       </c>
@@ -1355,12 +1539,12 @@
         <v>40</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="19" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="18" t="s">
         <v>12</v>
       </c>
@@ -1373,7 +1557,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>34</v>
       </c>
@@ -1384,7 +1568,7 @@
         <v>1.98</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>33</v>
       </c>
@@ -1395,7 +1579,7 @@
         <v>1.44</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>41</v>
       </c>
@@ -1406,7 +1590,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>43</v>
       </c>
@@ -1423,21 +1607,21 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C36" sqref="C36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="25.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="29.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="25.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="29.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="20" t="s">
         <v>38</v>
       </c>
@@ -1451,7 +1635,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="19" t="s">
         <v>35</v>
       </c>
@@ -1462,12 +1646,12 @@
         <v>40</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="19" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="18" t="s">
         <v>12</v>
       </c>
@@ -1479,7 +1663,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>41</v>
       </c>
@@ -1490,7 +1674,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>43</v>
       </c>
@@ -1501,7 +1685,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>45</v>
       </c>
@@ -1513,7 +1697,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>44</v>
       </c>
@@ -1525,7 +1709,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>46</v>
       </c>
@@ -1537,9 +1721,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B10">
         <f>$B$6*(1-0.22)</f>
@@ -1549,9 +1733,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B11">
         <f>$B$6*(1-0.24)</f>
@@ -1561,9 +1745,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B12">
         <f>$B$6*(1-0.48)</f>
@@ -1573,9 +1757,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B13">
         <f>$B$6*(1-0.63)</f>
@@ -1585,9 +1769,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B14">
         <f>$B$6*(1-0.28)</f>
@@ -1603,30 +1787,30 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:C19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>14</v>
       </c>
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>15</v>
       </c>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="4"/>
       <c r="B3" s="5" t="s">
         <v>16</v>
@@ -1635,7 +1819,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="7" t="s">
         <v>18</v>
       </c>
@@ -1647,7 +1831,7 @@
         <v>5.3537967341839917E-4</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="7" t="s">
         <v>19</v>
       </c>
@@ -1659,7 +1843,7 @@
         <v>7.1573391630231102E-4</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="7" t="s">
         <v>20</v>
       </c>
@@ -1671,7 +1855,7 @@
         <v>1.2496698492013921E-3</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="7" t="s">
         <v>21</v>
       </c>
@@ -1683,7 +1867,7 @@
         <v>1.963482644775587E-3</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" s="7" t="s">
         <v>22</v>
       </c>
@@ -1695,7 +1879,7 @@
         <v>8.9938431337556905E-5</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" s="7" t="s">
         <v>23</v>
       </c>
@@ -1707,7 +1891,7 @@
         <v>8.0375122691175155E-4</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" s="7" t="s">
         <v>24</v>
       </c>
@@ -1720,7 +1904,7 @@
         <v>4.1190030040748338E-3</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" s="7" t="s">
         <v>25</v>
       </c>
@@ -1732,7 +1916,7 @@
         <v>1.2498170786115822E-3</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" s="7" t="s">
         <v>26</v>
       </c>
@@ -1744,31 +1928,31 @@
         <v>1.4276255911483892E-3</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" s="10"/>
       <c r="B13" s="11"/>
       <c r="C13" s="12"/>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" s="3"/>
       <c r="B14" s="13"/>
       <c r="C14" s="13"/>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
         <v>27</v>
       </c>
       <c r="B15" s="13"/>
       <c r="C15" s="13"/>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" s="4"/>
       <c r="B16" s="14" t="s">
         <v>28</v>
       </c>
       <c r="C16" s="15"/>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" s="7" t="s">
         <v>29</v>
       </c>
@@ -1777,7 +1961,7 @@
       </c>
       <c r="C17" s="8"/>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" s="7" t="s">
         <v>30</v>
       </c>
@@ -1787,7 +1971,7 @@
       </c>
       <c r="C18" s="8"/>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" s="10" t="s">
         <v>31</v>
       </c>

--- a/data/steel/steel_WholeMill_var.xlsx
+++ b/data/steel/steel_WholeMill_var.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Tanzer/GitHub/BlackBlox/data/steel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5D71DD9-1A35-E247-A1B0-302CBE56A764}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4BD067F-9C38-8241-B32F-926DDEAE9328}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="20540" windowHeight="12940" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="23820" windowHeight="15000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Birat BF" sheetId="1" r:id="rId1"/>
@@ -32,6 +32,7 @@
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>S.E. Tanzer</author>
+    <author>Microsoft Office User</author>
   </authors>
   <commentList>
     <comment ref="E5" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
@@ -40,7 +41,7 @@
           <rPr>
             <b/>
             <sz val="9"/>
-            <color indexed="81"/>
+            <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
@@ -49,12 +50,21 @@
         <r>
           <rPr>
             <sz val="9"/>
-            <color indexed="81"/>
+            <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
           <t xml:space="preserve">
-In Birat 2010 the ratio of CO2 from limestone to CaCO3 is 0.373, instead of 0.44 (full oxidation). Therefore, it was assumed that there was a portion left non-reacted and exited via slag</t>
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>In Birat 2010 the ratio of CO2 from limestone to CaCO3 is 0.373, instead of 0.44 (full oxidation). Therefore, it was assumed that there was a portion left non-reacted and exited via slag</t>
         </r>
       </text>
     </comment>
@@ -131,6 +141,39 @@
         </r>
       </text>
     </comment>
+    <comment ref="B10" authorId="1" shapeId="0" xr:uid="{C6A4381F-E1FD-064E-B049-D7B898081345}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>S.E. Tanzer:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>total natural gas import to power plant * power plant efficiency</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
@@ -179,7 +222,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="78">
   <si>
     <t>scenario</t>
   </si>
@@ -214,9 +257,6 @@
     <t>t CaCO3 / t fresh steel</t>
   </si>
   <si>
-    <t>fresh steel is HRC - scrap</t>
-  </si>
-  <si>
     <t>default</t>
   </si>
   <si>
@@ -358,9 +398,6 @@
     <t>C in CaCO3 to slag</t>
   </si>
   <si>
-    <t>t C / t CaCO3</t>
-  </si>
-  <si>
     <t>%</t>
   </si>
   <si>
@@ -404,6 +441,22 @@
   </si>
   <si>
     <t>other energy use</t>
+  </si>
+  <si>
+    <t>coking coal</t>
+  </si>
+  <si>
+    <t>% calcination CO2 
+not emitted</t>
+  </si>
+  <si>
+    <t>fresh steel is 1 – scrap %</t>
+  </si>
+  <si>
+    <t>ieaghg-reference</t>
+  </si>
+  <si>
+    <t>none</t>
   </si>
 </sst>
 </file>
@@ -415,7 +468,7 @@
     <numFmt numFmtId="165" formatCode="0.0000"/>
     <numFmt numFmtId="166" formatCode="0.000"/>
   </numFmts>
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -479,19 +532,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
     </font>
     <font>
       <b/>
@@ -604,11 +644,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
@@ -636,10 +677,19 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="Percent" xfId="2" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -917,13 +967,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O9"/>
+  <dimension ref="A1:O11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="I2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="O14" sqref="O14"/>
+      <selection pane="bottomRight" activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -931,11 +981,12 @@
     <col min="1" max="1" width="20.83203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="17.83203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.33203125" customWidth="1"/>
-    <col min="5" max="6" width="13.83203125" customWidth="1"/>
-    <col min="7" max="7" width="23.83203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="23" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="16" customWidth="1"/>
+    <col min="4" max="4" width="19.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.1640625" customWidth="1"/>
+    <col min="6" max="6" width="13.83203125" customWidth="1"/>
+    <col min="7" max="7" width="20.83203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="20" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="19.5" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="15.83203125" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="14.83203125" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="12.6640625" bestFit="1" customWidth="1"/>
@@ -946,7 +997,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>3</v>
@@ -955,25 +1006,25 @@
         <v>6</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="G1" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>68</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>70</v>
       </c>
       <c r="J1" s="1" t="s">
         <v>4</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="L1" s="1" t="s">
         <v>5</v>
@@ -982,13 +1033,13 @@
         <v>7</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" ht="32" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -1001,29 +1052,29 @@
       <c r="D2" t="s">
         <v>10</v>
       </c>
-      <c r="E2" t="s">
-        <v>59</v>
+      <c r="E2" s="24" t="s">
+        <v>74</v>
       </c>
       <c r="G2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="H2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="I2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="J2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="K2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="L2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="N2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.2">
@@ -1031,12 +1082,21 @@
         <v>2</v>
       </c>
       <c r="D3" t="s">
-        <v>11</v>
+        <v>75</v>
+      </c>
+      <c r="G3" t="s">
+        <v>75</v>
+      </c>
+      <c r="H3" t="s">
+        <v>75</v>
+      </c>
+      <c r="I3" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B4">
         <f>B5</f>
@@ -1046,7 +1106,7 @@
         <f t="shared" ref="C4:M4" si="0">C5</f>
         <v>0.13800000000000001</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="23">
         <f t="shared" si="0"/>
         <v>0.28074245939675174</v>
       </c>
@@ -1058,15 +1118,15 @@
         <f t="shared" si="0"/>
         <v>coal</v>
       </c>
-      <c r="G4">
+      <c r="G4" s="23">
         <f t="shared" si="0"/>
-        <v>1.3921113689095127E-2</v>
-      </c>
-      <c r="H4">
+        <v>1.3921113689095129E-2</v>
+      </c>
+      <c r="H4" s="23">
         <f t="shared" si="0"/>
         <v>0.44315545243619492</v>
       </c>
-      <c r="I4">
+      <c r="I4" s="23">
         <f t="shared" si="0"/>
         <v>0.21693735498839908</v>
       </c>
@@ -1090,12 +1150,12 @@
         <v>0</v>
       </c>
       <c r="O4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B5">
         <f>72*'Reference Values'!$B$18</f>
@@ -1104,8 +1164,8 @@
       <c r="C5">
         <v>0.13800000000000001</v>
       </c>
-      <c r="D5">
-        <f>(109+133)/(1000-138)</f>
+      <c r="D5" s="23">
+        <f>(0.109+0.133)/(1-C5)</f>
         <v>0.28074245939675174</v>
       </c>
       <c r="E5" s="21">
@@ -1113,17 +1173,17 @@
         <v>0.15909090909090906</v>
       </c>
       <c r="F5" s="21" t="s">
-        <v>67</v>
-      </c>
-      <c r="G5">
-        <f>12/(1000-138)</f>
-        <v>1.3921113689095127E-2</v>
-      </c>
-      <c r="H5">
+        <v>65</v>
+      </c>
+      <c r="G5" s="23">
+        <f>0.012/(1-C5)</f>
+        <v>1.3921113689095129E-2</v>
+      </c>
+      <c r="H5" s="23">
         <f>382/(1000-138)</f>
         <v>0.44315545243619492</v>
       </c>
-      <c r="I5">
+      <c r="I5" s="23">
         <f>187/(1000-138)</f>
         <v>0.21693735498839908</v>
       </c>
@@ -1137,18 +1197,18 @@
         <v>0</v>
       </c>
       <c r="M5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B6">
         <f>(586-(0.812/0.8)*310)*'Reference Values'!$B$18</f>
@@ -1157,7 +1217,7 @@
       <c r="C6">
         <v>0.13800000000000001</v>
       </c>
-      <c r="D6">
+      <c r="D6" s="23">
         <f>(109+133)/(1000-138)</f>
         <v>0.28074245939675174</v>
       </c>
@@ -1166,17 +1226,17 @@
         <v>0.15909090909090906</v>
       </c>
       <c r="F6" s="21" t="s">
-        <v>67</v>
-      </c>
-      <c r="G6">
-        <f>24/(1000-138)</f>
-        <v>2.7842227378190254E-2</v>
-      </c>
-      <c r="H6">
+        <v>65</v>
+      </c>
+      <c r="G6" s="23">
+        <f>0.024/(1-C6)</f>
+        <v>2.7842227378190258E-2</v>
+      </c>
+      <c r="H6" s="23">
         <f>258/(1000-138)</f>
         <v>0.29930394431554525</v>
       </c>
-      <c r="I6">
+      <c r="I6" s="23">
         <f>144/(1000-138)</f>
         <v>0.16705336426914152</v>
       </c>
@@ -1190,18 +1250,18 @@
         <v>0</v>
       </c>
       <c r="M6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="N6">
         <v>1.7</v>
       </c>
       <c r="O6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B7">
         <f t="shared" ref="B7:I7" si="1">B6</f>
@@ -1211,26 +1271,26 @@
         <f t="shared" si="1"/>
         <v>0.13800000000000001</v>
       </c>
-      <c r="D7">
+      <c r="D7" s="23">
         <f t="shared" si="1"/>
         <v>0.28074245939675174</v>
       </c>
-      <c r="E7">
+      <c r="E7" s="23">
         <f t="shared" si="1"/>
         <v>0.15909090909090906</v>
       </c>
       <c r="F7" s="21" t="s">
-        <v>67</v>
-      </c>
-      <c r="G7">
+        <v>65</v>
+      </c>
+      <c r="G7" s="23">
         <f t="shared" si="1"/>
-        <v>2.7842227378190254E-2</v>
-      </c>
-      <c r="H7">
+        <v>2.7842227378190258E-2</v>
+      </c>
+      <c r="H7" s="23">
         <f t="shared" si="1"/>
         <v>0.29930394431554525</v>
       </c>
-      <c r="I7">
+      <c r="I7" s="23">
         <f t="shared" si="1"/>
         <v>0.16705336426914152</v>
       </c>
@@ -1244,19 +1304,19 @@
         <v>0.5</v>
       </c>
       <c r="M7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="N7">
         <f>N6</f>
         <v>1.7</v>
       </c>
       <c r="O7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B8">
         <f t="shared" ref="B8:I9" si="2">B$6</f>
@@ -1266,27 +1326,27 @@
         <f t="shared" si="2"/>
         <v>0.13800000000000001</v>
       </c>
-      <c r="D8">
+      <c r="D8" s="23">
         <f t="shared" si="2"/>
         <v>0.28074245939675174</v>
       </c>
-      <c r="E8">
+      <c r="E8" s="23">
         <f t="shared" si="2"/>
         <v>0.15909090909090906</v>
       </c>
-      <c r="F8" t="str">
+      <c r="F8" s="25" t="str">
         <f t="shared" si="2"/>
         <v>coal</v>
       </c>
-      <c r="G8">
+      <c r="G8" s="23">
         <f t="shared" si="2"/>
-        <v>2.7842227378190254E-2</v>
-      </c>
-      <c r="H8">
+        <v>2.7842227378190258E-2</v>
+      </c>
+      <c r="H8" s="23">
         <f t="shared" si="2"/>
         <v>0.29930394431554525</v>
       </c>
-      <c r="I8">
+      <c r="I8" s="23">
         <f t="shared" si="2"/>
         <v>0.16705336426914152</v>
       </c>
@@ -1300,7 +1360,7 @@
         <v>1</v>
       </c>
       <c r="M8" t="str">
-        <f t="shared" ref="M8:O9" si="3">M$6</f>
+        <f t="shared" ref="M8:N9" si="3">M$6</f>
         <v>charcoal</v>
       </c>
       <c r="N8">
@@ -1308,12 +1368,12 @@
         <v>1.7</v>
       </c>
       <c r="O8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B9">
         <f t="shared" si="2"/>
@@ -1323,27 +1383,27 @@
         <f t="shared" si="2"/>
         <v>0.13800000000000001</v>
       </c>
-      <c r="D9">
+      <c r="D9" s="23">
         <f t="shared" si="2"/>
         <v>0.28074245939675174</v>
       </c>
-      <c r="E9">
+      <c r="E9" s="23">
         <f t="shared" si="2"/>
         <v>0.15909090909090906</v>
       </c>
-      <c r="F9" t="str">
+      <c r="F9" s="25" t="str">
         <f t="shared" si="2"/>
         <v>coal</v>
       </c>
-      <c r="G9">
+      <c r="G9" s="23">
         <f t="shared" si="2"/>
-        <v>2.7842227378190254E-2</v>
-      </c>
-      <c r="H9">
+        <v>2.7842227378190258E-2</v>
+      </c>
+      <c r="H9" s="23">
         <f t="shared" si="2"/>
         <v>0.29930394431554525</v>
       </c>
-      <c r="I9">
+      <c r="I9" s="23">
         <f t="shared" si="2"/>
         <v>0.16705336426914152</v>
       </c>
@@ -1365,8 +1425,65 @@
         <v>1.7</v>
       </c>
       <c r="O9" t="s">
-        <v>32</v>
-      </c>
+        <v>31</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>76</v>
+      </c>
+      <c r="B10">
+        <f>0.8496*0.32</f>
+        <v>0.271872</v>
+      </c>
+      <c r="C10" s="23">
+        <f>0.1264+0.0168</f>
+        <v>0.14320000000000002</v>
+      </c>
+      <c r="D10" s="23">
+        <f>(0.1464+(0.1165*1.1114)+(0.0131*0.9922))/(1-C10)</f>
+        <v>0.33715676937441647</v>
+      </c>
+      <c r="E10" s="23">
+        <f>3/42.6</f>
+        <v>7.0422535211267609E-2</v>
+      </c>
+      <c r="F10" s="21" t="s">
+        <v>73</v>
+      </c>
+      <c r="G10" s="23">
+        <f>0.0556/(1-C10)</f>
+        <v>6.4892623716153119E-2</v>
+      </c>
+      <c r="H10" s="23">
+        <f>(0.3143+0.2095)/(1-C10)</f>
+        <v>0.6113445378151261</v>
+      </c>
+      <c r="I10" s="23">
+        <f>(0.1508)/(1-C10)</f>
+        <v>0.17600373482726422</v>
+      </c>
+      <c r="J10" s="22">
+        <v>0</v>
+      </c>
+      <c r="K10" s="22">
+        <v>0</v>
+      </c>
+      <c r="L10" s="22">
+        <v>0</v>
+      </c>
+      <c r="M10" t="s">
+        <v>77</v>
+      </c>
+      <c r="N10" s="26">
+        <v>0</v>
+      </c>
+      <c r="O10" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="F11" s="21"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1392,32 +1509,32 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="20" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="19" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C2" t="s">
         <v>39</v>
-      </c>
-      <c r="C2" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="19" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B3">
         <f>B4</f>
@@ -1430,7 +1547,7 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B4">
         <v>1.8879999999999999</v>
@@ -1441,7 +1558,7 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B5">
         <v>1.968</v>
@@ -1452,7 +1569,7 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B6">
         <v>2.0939999999999999</v>
@@ -1463,7 +1580,7 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B7">
         <v>1.046</v>
@@ -1474,7 +1591,7 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B8">
         <v>0.83140000000000003</v>
@@ -1485,7 +1602,7 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B9">
         <v>1.119</v>
@@ -1516,27 +1633,27 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="20" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="19" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C2" t="s">
         <v>39</v>
-      </c>
-      <c r="C2" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -1546,7 +1663,7 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="18" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B4">
         <f>B8</f>
@@ -1559,7 +1676,7 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B5">
         <v>0.12</v>
@@ -1570,7 +1687,7 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B6">
         <v>7.0000000000000007E-2</v>
@@ -1581,7 +1698,7 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B7">
         <v>0.45500000000000002</v>
@@ -1592,7 +1709,7 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B8">
         <v>0.66700000000000004</v>
@@ -1623,27 +1740,27 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="20" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="19" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C2" t="s">
         <v>39</v>
-      </c>
-      <c r="C2" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -1653,7 +1770,7 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="18" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B4">
         <f>B5</f>
@@ -1665,7 +1782,7 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B5">
         <v>1.2929999999999999</v>
@@ -1676,7 +1793,7 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B6">
         <v>1.508</v>
@@ -1687,7 +1804,7 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B7">
         <f>$B$6*(1-0.19)</f>
@@ -1699,7 +1816,7 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B8">
         <f>$B$6*(1-0.31)</f>
@@ -1711,7 +1828,7 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B9">
         <f>$B$6*(1-0.22)</f>
@@ -1723,7 +1840,7 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B10">
         <f>$B$6*(1-0.22)</f>
@@ -1735,7 +1852,7 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B11">
         <f>$B$6*(1-0.24)</f>
@@ -1747,7 +1864,7 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B12">
         <f>$B$6*(1-0.48)</f>
@@ -1759,7 +1876,7 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B13">
         <f>$B$6*(1-0.63)</f>
@@ -1771,7 +1888,7 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B14">
         <f>$B$6*(1-0.28)</f>
@@ -1798,14 +1915,14 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
@@ -1813,15 +1930,15 @@
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="4"/>
       <c r="B3" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" s="6" t="s">
         <v>16</v>
-      </c>
-      <c r="C3" s="6" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B4" s="8">
         <v>12</v>
@@ -1833,7 +1950,7 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B5" s="8">
         <v>16.042459999999998</v>
@@ -1845,7 +1962,7 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B6" s="8">
         <v>28.010100000000001</v>
@@ -1857,7 +1974,7 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B7" s="8">
         <v>44.009500000000003</v>
@@ -1869,7 +1986,7 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B8" s="8">
         <v>2.0158800000000001</v>
@@ -1881,7 +1998,7 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B9" s="8">
         <v>18.015280000000001</v>
@@ -1893,7 +2010,7 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" s="7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B10" s="8">
         <f>(78.12+92.15+106.7)/3</f>
@@ -1906,7 +2023,7 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" s="7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B11" s="8">
         <v>28.013400000000001</v>
@@ -1918,7 +2035,7 @@
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" s="7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B12" s="8">
         <v>31.998799999999999</v>
@@ -1940,7 +2057,7 @@
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B15" s="13"/>
       <c r="C15" s="13"/>
@@ -1948,13 +2065,13 @@
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" s="4"/>
       <c r="B16" s="14" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C16" s="15"/>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" s="7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B17" s="16">
         <v>3.6</v>
@@ -1963,7 +2080,7 @@
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B18" s="17">
         <f>B17/1000</f>
@@ -1973,7 +2090,7 @@
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" s="10" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B19" s="12">
         <f>1/0.022414</f>

--- a/data/steel/steel_WholeMill_var.xlsx
+++ b/data/steel/steel_WholeMill_var.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10910"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Tanzer/GitHub/BlackBlox/data/steel/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\setanzer\GitHub\BlackBlox\data\steel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4BD067F-9C38-8241-B32F-926DDEAE9328}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="23820" windowHeight="15000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="465" windowWidth="23820" windowHeight="15000"/>
   </bookViews>
   <sheets>
     <sheet name="Birat BF" sheetId="1" r:id="rId1"/>
@@ -19,7 +18,7 @@
     <sheet name="BF EAF bb" sheetId="5" r:id="rId4"/>
     <sheet name="Reference Values" sheetId="2" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="179021"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -29,13 +28,13 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>S.E. Tanzer</author>
     <author>Microsoft Office User</author>
   </authors>
   <commentList>
-    <comment ref="E5" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
+    <comment ref="E5" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -68,7 +67,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B6" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
+    <comment ref="B6" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -141,7 +140,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B10" authorId="1" shapeId="0" xr:uid="{C6A4381F-E1FD-064E-B049-D7B898081345}">
+    <comment ref="B10" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -179,12 +178,12 @@
 </file>
 
 <file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>Microsoft Office User</author>
   </authors>
   <commentList>
-    <comment ref="C3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000001000000}">
+    <comment ref="C3" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -222,7 +221,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="86">
   <si>
     <t>scenario</t>
   </si>
@@ -457,12 +456,36 @@
   </si>
   <si>
     <t>none</t>
+  </si>
+  <si>
+    <t>global-BF-base</t>
+  </si>
+  <si>
+    <t>China-BF-base</t>
+  </si>
+  <si>
+    <t>EU-BF-base</t>
+  </si>
+  <si>
+    <t>India-BF-base</t>
+  </si>
+  <si>
+    <t>Japan-BF-base</t>
+  </si>
+  <si>
+    <t>Russia-BF-base</t>
+  </si>
+  <si>
+    <t>SouthKorea-BF-base</t>
+  </si>
+  <si>
+    <t>USA-BF-base</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="3">
     <numFmt numFmtId="164" formatCode="0.00000"/>
     <numFmt numFmtId="165" formatCode="0.0000"/>
@@ -688,7 +711,7 @@
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="Normal 2" xfId="1"/>
     <cellStyle name="Percent" xfId="2" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -966,33 +989,33 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O11"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:O18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D19" sqref="D19"/>
+      <selection pane="bottomRight" sqref="A1:A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.83203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.83203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.1640625" customWidth="1"/>
-    <col min="6" max="6" width="13.83203125" customWidth="1"/>
-    <col min="7" max="7" width="20.83203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.140625" customWidth="1"/>
+    <col min="6" max="6" width="13.85546875" customWidth="1"/>
+    <col min="7" max="7" width="20.85546875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="20" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="19.5" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.83203125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.83203125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="19.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1039,7 +1062,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="2" spans="1:15" ht="32" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:15" ht="45" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -1077,7 +1100,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -1094,7 +1117,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>11</v>
       </c>
@@ -1153,7 +1176,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>61</v>
       </c>
@@ -1206,7 +1229,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>59</v>
       </c>
@@ -1259,7 +1282,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>60</v>
       </c>
@@ -1314,7 +1337,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>70</v>
       </c>
@@ -1371,7 +1394,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>71</v>
       </c>
@@ -1428,7 +1451,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>76</v>
       </c>
@@ -1482,8 +1505,46 @@
         <v>77</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>78</v>
+      </c>
       <c r="F11" s="21"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>85</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1493,21 +1554,21 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.1640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="20" t="s">
         <v>37</v>
       </c>
@@ -1521,7 +1582,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="19" t="s">
         <v>34</v>
       </c>
@@ -1532,7 +1593,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="19" t="s">
         <v>11</v>
       </c>
@@ -1545,7 +1606,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>40</v>
       </c>
@@ -1556,7 +1617,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>42</v>
       </c>
@@ -1567,7 +1628,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>53</v>
       </c>
@@ -1578,7 +1639,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>54</v>
       </c>
@@ -1589,7 +1650,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>55</v>
       </c>
@@ -1600,7 +1661,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>56</v>
       </c>
@@ -1617,21 +1678,21 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.83203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.1640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="29.1640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="29.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="20" t="s">
         <v>37</v>
       </c>
@@ -1645,7 +1706,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="19" t="s">
         <v>34</v>
       </c>
@@ -1656,12 +1717,12 @@
         <v>39</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="19" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
         <v>11</v>
       </c>
@@ -1674,7 +1735,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>33</v>
       </c>
@@ -1685,7 +1746,7 @@
         <v>1.98</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>32</v>
       </c>
@@ -1696,7 +1757,7 @@
         <v>1.44</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>40</v>
       </c>
@@ -1707,7 +1768,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>42</v>
       </c>
@@ -1724,21 +1785,21 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C36" sqref="C36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="25.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.1640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="29.1640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="25.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="29.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="20" t="s">
         <v>37</v>
       </c>
@@ -1752,7 +1813,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="19" t="s">
         <v>34</v>
       </c>
@@ -1763,12 +1824,12 @@
         <v>39</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="19" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
         <v>11</v>
       </c>
@@ -1780,7 +1841,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>40</v>
       </c>
@@ -1791,7 +1852,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>42</v>
       </c>
@@ -1802,7 +1863,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>44</v>
       </c>
@@ -1814,7 +1875,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>43</v>
       </c>
@@ -1826,7 +1887,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>45</v>
       </c>
@@ -1838,7 +1899,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>51</v>
       </c>
@@ -1850,7 +1911,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>48</v>
       </c>
@@ -1862,7 +1923,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>49</v>
       </c>
@@ -1874,7 +1935,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>50</v>
       </c>
@@ -1886,7 +1947,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>52</v>
       </c>
@@ -1904,30 +1965,30 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>13</v>
       </c>
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>14</v>
       </c>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="4"/>
       <c r="B3" s="5" t="s">
         <v>15</v>
@@ -1936,7 +1997,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
         <v>17</v>
       </c>
@@ -1948,7 +2009,7 @@
         <v>5.3537967341839917E-4</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
         <v>18</v>
       </c>
@@ -1960,7 +2021,7 @@
         <v>7.1573391630231102E-4</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
         <v>19</v>
       </c>
@@ -1972,7 +2033,7 @@
         <v>1.2496698492013921E-3</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
         <v>20</v>
       </c>
@@ -1984,7 +2045,7 @@
         <v>1.963482644775587E-3</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>21</v>
       </c>
@@ -1996,7 +2057,7 @@
         <v>8.9938431337556905E-5</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
         <v>22</v>
       </c>
@@ -2008,7 +2069,7 @@
         <v>8.0375122691175155E-4</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
         <v>23</v>
       </c>
@@ -2021,7 +2082,7 @@
         <v>4.1190030040748338E-3</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="s">
         <v>24</v>
       </c>
@@ -2033,7 +2094,7 @@
         <v>1.2498170786115822E-3</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="s">
         <v>25</v>
       </c>
@@ -2045,31 +2106,31 @@
         <v>1.4276255911483892E-3</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="10"/>
       <c r="B13" s="11"/>
       <c r="C13" s="12"/>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="3"/>
       <c r="B14" s="13"/>
       <c r="C14" s="13"/>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>26</v>
       </c>
       <c r="B15" s="13"/>
       <c r="C15" s="13"/>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="4"/>
       <c r="B16" s="14" t="s">
         <v>27</v>
       </c>
       <c r="C16" s="15"/>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="7" t="s">
         <v>28</v>
       </c>
@@ -2078,7 +2139,7 @@
       </c>
       <c r="C17" s="8"/>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="7" t="s">
         <v>29</v>
       </c>
@@ -2088,7 +2149,7 @@
       </c>
       <c r="C18" s="8"/>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="10" t="s">
         <v>30</v>
       </c>

--- a/data/steel/steel_WholeMill_var.xlsx
+++ b/data/steel/steel_WholeMill_var.xlsx
@@ -996,7 +996,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" sqref="A1:A4"/>
+      <selection pane="bottomRight" activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/data/steel/steel_WholeMill_var.xlsx
+++ b/data/steel/steel_WholeMill_var.xlsx
@@ -996,7 +996,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D16" sqref="D16"/>
+      <selection pane="bottomRight" activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1969,7 +1969,7 @@
   <dimension ref="A1:C19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+      <selection activeCell="F13" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/data/steel/steel_WholeMill_var.xlsx
+++ b/data/steel/steel_WholeMill_var.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10910"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\setanzer\GitHub\BlackBlox\data\steel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Tanzer/GitHub/BlackBlox/data/steel/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6806C8C4-879D-C644-8E49-67279E69F425}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="465" windowWidth="23820" windowHeight="15000"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="24480" windowHeight="17540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Birat BF" sheetId="1" r:id="rId1"/>
@@ -18,7 +19,7 @@
     <sheet name="BF EAF bb" sheetId="5" r:id="rId4"/>
     <sheet name="Reference Values" sheetId="2" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="179021"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -28,13 +29,13 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>S.E. Tanzer</author>
     <author>Microsoft Office User</author>
   </authors>
   <commentList>
-    <comment ref="E5" authorId="0" shapeId="0">
+    <comment ref="E5" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
         <r>
           <rPr>
@@ -67,7 +68,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B6" authorId="0" shapeId="0">
+    <comment ref="B6" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
       <text>
         <r>
           <rPr>
@@ -140,7 +141,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B10" authorId="1" shapeId="0">
+    <comment ref="B10" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-000003000000}">
       <text>
         <r>
           <rPr>
@@ -178,12 +179,12 @@
 </file>
 
 <file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Microsoft Office User</author>
   </authors>
   <commentList>
-    <comment ref="C3" authorId="0" shapeId="0">
+    <comment ref="C3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000001000000}">
       <text>
         <r>
           <rPr>
@@ -221,7 +222,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="89">
   <si>
     <t>scenario</t>
   </si>
@@ -480,12 +481,21 @@
   </si>
   <si>
     <t>USA-BF-base</t>
+  </si>
+  <si>
+    <t>fueltype</t>
+  </si>
+  <si>
+    <t>t BF fuel/t fresh steel</t>
+  </si>
+  <si>
+    <t>PCI coal</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="3">
     <numFmt numFmtId="164" formatCode="0.00000"/>
     <numFmt numFmtId="165" formatCode="0.0000"/>
@@ -711,7 +721,7 @@
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
     <cellStyle name="Percent" xfId="2" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -989,33 +999,34 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O18"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:P18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D10" sqref="D10"/>
+      <selection pane="bottomRight" activeCell="J17" sqref="J17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="20.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.140625" customWidth="1"/>
-    <col min="6" max="6" width="13.85546875" customWidth="1"/>
-    <col min="7" max="7" width="20.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.1640625" customWidth="1"/>
+    <col min="6" max="6" width="13.83203125" customWidth="1"/>
+    <col min="7" max="7" width="20.83203125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="20" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="19.42578125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.85546875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="19.5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="19.5" customWidth="1"/>
+    <col min="11" max="11" width="15.83203125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.83203125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1044,25 +1055,28 @@
         <v>68</v>
       </c>
       <c r="J1" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="K1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="2" spans="1:15" ht="45" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16" ht="32" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -1088,7 +1102,7 @@
         <v>64</v>
       </c>
       <c r="J2" t="s">
-        <v>58</v>
+        <v>87</v>
       </c>
       <c r="K2" t="s">
         <v>58</v>
@@ -1096,11 +1110,14 @@
       <c r="L2" t="s">
         <v>58</v>
       </c>
-      <c r="N2" t="s">
+      <c r="M2" t="s">
+        <v>58</v>
+      </c>
+      <c r="O2" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -1117,7 +1134,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>11</v>
       </c>
@@ -1126,7 +1143,7 @@
         <v>0.25919999999999999</v>
       </c>
       <c r="C4">
-        <f t="shared" ref="C4:M4" si="0">C5</f>
+        <f t="shared" ref="C4:N4" si="0">C5</f>
         <v>0.13800000000000001</v>
       </c>
       <c r="D4" s="23">
@@ -1153,9 +1170,8 @@
         <f t="shared" si="0"/>
         <v>0.21693735498839908</v>
       </c>
-      <c r="J4">
-        <f t="shared" si="0"/>
-        <v>0</v>
+      <c r="J4" s="23" t="s">
+        <v>88</v>
       </c>
       <c r="K4">
         <f t="shared" si="0"/>
@@ -1165,18 +1181,22 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M4" t="str">
+      <c r="M4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="N4" t="str">
         <f t="shared" si="0"/>
         <v>charcoal</v>
       </c>
-      <c r="N4">
-        <v>0</v>
-      </c>
-      <c r="O4" t="s">
+      <c r="O4">
+        <v>0</v>
+      </c>
+      <c r="P4" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>61</v>
       </c>
@@ -1210,8 +1230,8 @@
         <f>187/(1000-138)</f>
         <v>0.21693735498839908</v>
       </c>
-      <c r="J5">
-        <v>0</v>
+      <c r="J5" s="23" t="s">
+        <v>88</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -1219,17 +1239,20 @@
       <c r="L5">
         <v>0</v>
       </c>
-      <c r="M5" t="s">
+      <c r="M5">
+        <v>0</v>
+      </c>
+      <c r="N5" t="s">
         <v>31</v>
       </c>
-      <c r="N5">
-        <v>0</v>
-      </c>
-      <c r="O5" t="s">
+      <c r="O5">
+        <v>0</v>
+      </c>
+      <c r="P5" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>59</v>
       </c>
@@ -1263,8 +1286,8 @@
         <f>144/(1000-138)</f>
         <v>0.16705336426914152</v>
       </c>
-      <c r="J6">
-        <v>0</v>
+      <c r="J6" s="23" t="s">
+        <v>88</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -1272,17 +1295,20 @@
       <c r="L6">
         <v>0</v>
       </c>
-      <c r="M6" t="s">
+      <c r="M6">
+        <v>0</v>
+      </c>
+      <c r="N6" t="s">
         <v>31</v>
       </c>
-      <c r="N6">
+      <c r="O6">
         <v>1.7</v>
       </c>
-      <c r="O6" t="s">
+      <c r="P6" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>60</v>
       </c>
@@ -1317,8 +1343,8 @@
         <f t="shared" si="1"/>
         <v>0.16705336426914152</v>
       </c>
-      <c r="J7" s="22">
-        <v>0.5</v>
+      <c r="J7" s="23" t="s">
+        <v>88</v>
       </c>
       <c r="K7" s="22">
         <v>0.5</v>
@@ -1326,18 +1352,21 @@
       <c r="L7" s="22">
         <v>0.5</v>
       </c>
-      <c r="M7" t="s">
+      <c r="M7" s="22">
+        <v>0.5</v>
+      </c>
+      <c r="N7" t="s">
         <v>31</v>
       </c>
-      <c r="N7">
-        <f>N6</f>
+      <c r="O7">
+        <f>O6</f>
         <v>1.7</v>
       </c>
-      <c r="O7" t="s">
+      <c r="P7" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>70</v>
       </c>
@@ -1373,8 +1402,8 @@
         <f t="shared" si="2"/>
         <v>0.16705336426914152</v>
       </c>
-      <c r="J8" s="22">
-        <v>1</v>
+      <c r="J8" s="23" t="s">
+        <v>88</v>
       </c>
       <c r="K8" s="22">
         <v>1</v>
@@ -1382,19 +1411,22 @@
       <c r="L8" s="22">
         <v>1</v>
       </c>
-      <c r="M8" t="str">
-        <f t="shared" ref="M8:N9" si="3">M$6</f>
+      <c r="M8" s="22">
+        <v>1</v>
+      </c>
+      <c r="N8" t="str">
+        <f t="shared" ref="N8:O9" si="3">N$6</f>
         <v>charcoal</v>
       </c>
-      <c r="N8">
+      <c r="O8">
         <f t="shared" si="3"/>
         <v>1.7</v>
       </c>
-      <c r="O8" t="s">
+      <c r="P8" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>71</v>
       </c>
@@ -1430,8 +1462,8 @@
         <f t="shared" si="2"/>
         <v>0.16705336426914152</v>
       </c>
-      <c r="J9" s="22">
-        <v>1</v>
+      <c r="J9" s="23" t="s">
+        <v>88</v>
       </c>
       <c r="K9" s="22">
         <v>1</v>
@@ -1439,33 +1471,35 @@
       <c r="L9" s="22">
         <v>1</v>
       </c>
-      <c r="M9" t="str">
+      <c r="M9" s="22">
+        <v>1</v>
+      </c>
+      <c r="N9" t="str">
         <f t="shared" si="3"/>
         <v>charcoal</v>
       </c>
-      <c r="N9">
+      <c r="O9">
         <f t="shared" si="3"/>
         <v>1.7</v>
       </c>
-      <c r="O9" t="s">
+      <c r="P9" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>76</v>
       </c>
       <c r="B10">
-        <f>0.8496*0.32</f>
-        <v>0.271872</v>
+        <v>0</v>
       </c>
       <c r="C10" s="23">
-        <f>0.1264+0.0168</f>
-        <v>0.14320000000000002</v>
+        <f>0.1169+0.0731</f>
+        <v>0.19</v>
       </c>
       <c r="D10" s="23">
-        <f>(0.1464+(0.1165*1.1114)+(0.0131*0.9922))/(1-C10)</f>
-        <v>0.33715676937441647</v>
+        <f>0.305/(1-C10)</f>
+        <v>0.37654320987654316</v>
       </c>
       <c r="E10" s="23">
         <f>3/42.6</f>
@@ -1475,19 +1509,19 @@
         <v>73</v>
       </c>
       <c r="G10" s="23">
-        <f>0.0556/(1-C10)</f>
-        <v>6.4892623716153119E-2</v>
+        <f>0</f>
+        <v>0</v>
       </c>
       <c r="H10" s="23">
-        <f>(0.3143+0.2095)/(1-C10)</f>
-        <v>0.6113445378151261</v>
+        <f>0.478342726/(1-C10)</f>
+        <v>0.59054657530864196</v>
       </c>
       <c r="I10" s="23">
-        <f>(0.1508)/(1-C10)</f>
-        <v>0.17600373482726422</v>
-      </c>
-      <c r="J10" s="22">
-        <v>0</v>
+        <f>0.1376816/(1-C10)</f>
+        <v>0.16997728395061726</v>
+      </c>
+      <c r="J10" s="23" t="s">
+        <v>88</v>
       </c>
       <c r="K10" s="22">
         <v>0</v>
@@ -1495,53 +1529,56 @@
       <c r="L10" s="22">
         <v>0</v>
       </c>
-      <c r="M10" t="s">
+      <c r="M10" s="22">
+        <v>0</v>
+      </c>
+      <c r="N10" t="s">
         <v>77</v>
       </c>
-      <c r="N10" s="26">
-        <v>0</v>
-      </c>
-      <c r="O10" t="s">
+      <c r="O10" s="26">
+        <v>0</v>
+      </c>
+      <c r="P10" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>78</v>
       </c>
       <c r="F11" s="21"/>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>85</v>
       </c>
@@ -1554,21 +1591,21 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="20" t="s">
         <v>37</v>
       </c>
@@ -1582,7 +1619,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="19" t="s">
         <v>34</v>
       </c>
@@ -1593,7 +1630,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="19" t="s">
         <v>11</v>
       </c>
@@ -1606,7 +1643,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>40</v>
       </c>
@@ -1617,7 +1654,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>42</v>
       </c>
@@ -1628,7 +1665,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>53</v>
       </c>
@@ -1639,7 +1676,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>54</v>
       </c>
@@ -1650,7 +1687,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>55</v>
       </c>
@@ -1661,7 +1698,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>56</v>
       </c>
@@ -1678,21 +1715,21 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="16.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="29.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="29.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="20" t="s">
         <v>37</v>
       </c>
@@ -1706,7 +1743,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="19" t="s">
         <v>34</v>
       </c>
@@ -1717,12 +1754,12 @@
         <v>39</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="19" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="18" t="s">
         <v>11</v>
       </c>
@@ -1735,7 +1772,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>33</v>
       </c>
@@ -1746,7 +1783,7 @@
         <v>1.98</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>32</v>
       </c>
@@ -1757,7 +1794,7 @@
         <v>1.44</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>40</v>
       </c>
@@ -1768,7 +1805,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>42</v>
       </c>
@@ -1785,21 +1822,21 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C36" sqref="C36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="25.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="29.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="25.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="29.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="20" t="s">
         <v>37</v>
       </c>
@@ -1813,7 +1850,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="19" t="s">
         <v>34</v>
       </c>
@@ -1824,12 +1861,12 @@
         <v>39</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="19" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="18" t="s">
         <v>11</v>
       </c>
@@ -1841,7 +1878,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>40</v>
       </c>
@@ -1852,7 +1889,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>42</v>
       </c>
@@ -1863,7 +1900,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>44</v>
       </c>
@@ -1875,7 +1912,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>43</v>
       </c>
@@ -1887,7 +1924,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>45</v>
       </c>
@@ -1899,7 +1936,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>51</v>
       </c>
@@ -1911,7 +1948,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>48</v>
       </c>
@@ -1923,7 +1960,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>49</v>
       </c>
@@ -1935,7 +1972,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>50</v>
       </c>
@@ -1947,7 +1984,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>52</v>
       </c>
@@ -1965,30 +2002,30 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:C19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F13" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>13</v>
       </c>
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>14</v>
       </c>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="4"/>
       <c r="B3" s="5" t="s">
         <v>15</v>
@@ -1997,7 +2034,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="7" t="s">
         <v>17</v>
       </c>
@@ -2009,7 +2046,7 @@
         <v>5.3537967341839917E-4</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="7" t="s">
         <v>18</v>
       </c>
@@ -2021,7 +2058,7 @@
         <v>7.1573391630231102E-4</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="7" t="s">
         <v>19</v>
       </c>
@@ -2033,7 +2070,7 @@
         <v>1.2496698492013921E-3</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="7" t="s">
         <v>20</v>
       </c>
@@ -2045,7 +2082,7 @@
         <v>1.963482644775587E-3</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" s="7" t="s">
         <v>21</v>
       </c>
@@ -2057,7 +2094,7 @@
         <v>8.9938431337556905E-5</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" s="7" t="s">
         <v>22</v>
       </c>
@@ -2069,7 +2106,7 @@
         <v>8.0375122691175155E-4</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" s="7" t="s">
         <v>23</v>
       </c>
@@ -2082,7 +2119,7 @@
         <v>4.1190030040748338E-3</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" s="7" t="s">
         <v>24</v>
       </c>
@@ -2094,7 +2131,7 @@
         <v>1.2498170786115822E-3</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" s="7" t="s">
         <v>25</v>
       </c>
@@ -2106,31 +2143,31 @@
         <v>1.4276255911483892E-3</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" s="10"/>
       <c r="B13" s="11"/>
       <c r="C13" s="12"/>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" s="3"/>
       <c r="B14" s="13"/>
       <c r="C14" s="13"/>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
         <v>26</v>
       </c>
       <c r="B15" s="13"/>
       <c r="C15" s="13"/>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" s="4"/>
       <c r="B16" s="14" t="s">
         <v>27</v>
       </c>
       <c r="C16" s="15"/>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" s="7" t="s">
         <v>28</v>
       </c>
@@ -2139,7 +2176,7 @@
       </c>
       <c r="C17" s="8"/>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" s="7" t="s">
         <v>29</v>
       </c>
@@ -2149,7 +2186,7 @@
       </c>
       <c r="C18" s="8"/>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" s="10" t="s">
         <v>30</v>
       </c>
